--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatE.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -200,12 +205,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,6 +284,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -323,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +367,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,22 +611,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -609,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -623,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -637,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -651,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -662,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -680,23 +725,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="63.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -719,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -736,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -753,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -770,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -787,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -804,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -821,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -838,7 +883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -855,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -872,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -889,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -906,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -923,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -940,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -957,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -981,24 +1026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1039,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -1109,7 +1154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -1144,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1179,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1214,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -1249,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -1284,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -1319,7 +1364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -1389,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -1424,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1459,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1494,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -1529,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -1571,26 +1616,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1634,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1657,7 +1702,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>57</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatE.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="61">
   <si>
     <t>TC</t>
   </si>
@@ -183,9 +183,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -207,13 +204,14 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -725,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1026,11 +1024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -1101,25 +1099,25 @@
         <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>21</v>
@@ -1136,25 +1134,25 @@
         <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>21</v>
@@ -1171,25 +1169,25 @@
         <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>21</v>
@@ -1206,25 +1204,25 @@
         <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>21</v>
@@ -1241,25 +1239,25 @@
         <v>51</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -1267,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>21</v>
@@ -1276,25 +1274,25 @@
         <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>21</v>
@@ -1311,25 +1309,25 @@
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>21</v>
@@ -1346,25 +1344,25 @@
         <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>21</v>
@@ -1381,25 +1379,25 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>21</v>
@@ -1416,25 +1414,25 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -1442,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>21</v>
@@ -1451,25 +1449,25 @@
         <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
@@ -1486,25 +1484,25 @@
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
@@ -1521,25 +1519,25 @@
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K14" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -1547,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
@@ -1556,25 +1554,25 @@
         <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K15" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -1582,7 +1580,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>21</v>
@@ -1591,19 +1589,19 @@
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>6</v>
@@ -1616,11 +1614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1665,7 @@
         <v>49</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1687,7 +1685,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -1696,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
